--- a/8. 资源组长工作框架/2. 资源管理/2. 梯队建设/2-2研发体系人员盘点-平台组态-2021.xlsx
+++ b/8. 资源组长工作框架/2. 资源管理/2. 梯队建设/2-2研发体系人员盘点-平台组态-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="719" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="719" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表1-人员盘点" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="表3-人员盘点_专业潜力结果" sheetId="5" r:id="rId3"/>
     <sheet name="表4-人员盘点_管理潜力结果" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2669,7 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3338,8 +3338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4971,6 +4971,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="2">
     <comment s:ref="E4" rgbClr="FF0000">
@@ -5467,33 +5493,19 @@
 </comments>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="8"/>
+</pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="8" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master="">
     <arrUserId title="Range1"/>
@@ -5513,50 +5525,38 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="8"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>